--- a/news-portal-app/public/planning/Cesar_planning_info.xlsx
+++ b/news-portal-app/public/planning/Cesar_planning_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ct08284/sei/projects/NewsPortal/news-portal-app/public/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6275C-D2EF-2247-8D31-B65310000FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA1195-862A-8741-A8AA-12B307FA4551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14500" activeTab="3" xr2:uid="{295DA8A9-1451-E343-B001-0818A78FC602}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14500" xr2:uid="{295DA8A9-1451-E343-B001-0818A78FC602}"/>
   </bookViews>
   <sheets>
     <sheet name="MVP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -234,13 +234,80 @@
   </si>
   <si>
     <t>End point for current weather conditions</t>
+  </si>
+  <si>
+    <t>API calling example</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <r>
+      <t>https://content.guardianapis.com/search?api-key=8e3808f1-0f78-4746-ba70-fd8bf8ce21f4&amp;q=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>${searchString}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;show-fields=thumbnail`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://api.weatherbit.io/v2.0/current?key=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keyValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;lat=38.123&amp;lon=-78.543</t>
+    </r>
+  </si>
+  <si>
+    <t>Application container</t>
+  </si>
+  <si>
+    <t>Socorro/Cesar</t>
+  </si>
+  <si>
+    <t>API documentation</t>
+  </si>
+  <si>
+    <t>https://www.weatherbit.io/api</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,6 +330,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="5">
@@ -335,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -349,6 +421,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -666,11 +739,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC3D49C-36A5-D242-8BF8-FCB09B15688C}">
   <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -681,7 +754,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="17" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
@@ -698,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="17" thickTop="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -713,7 +786,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -728,7 +801,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -743,7 +816,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -758,7 +831,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -773,7 +846,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -790,7 +863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -805,7 +878,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -820,7 +893,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -835,7 +908,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -850,7 +923,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -874,184 +947,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277D70AF-99A8-1442-8CBD-2FF7F0380110}">
-  <dimension ref="B3:F11"/>
+  <dimension ref="A3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="115.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
       <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="str">
-        <f>+B6&amp;".js"</f>
+      <c r="D7" t="str">
+        <f>+A7&amp;".js"</f>
         <v>Search.js</v>
       </c>
-      <c r="F6" t="str">
-        <f>+B6&amp;".css"</f>
+      <c r="E7" t="str">
+        <f>+A7&amp;".css"</f>
         <v>Search.css</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E11" si="0">+B7&amp;".js"</f>
+      <c r="D8" t="str">
+        <f t="shared" ref="D8:D12" si="0">+A8&amp;".js"</f>
         <v>NewsList.js</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" ref="F7:F11" si="1">+B7&amp;".css"</f>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E12" si="1">+A8&amp;".css"</f>
         <v>NewsList.css</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>NewsListHeader.js</v>
       </c>
-      <c r="F8" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="1"/>
         <v>NewsListHeader.css</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>NewsListBody.js</v>
       </c>
-      <c r="F9" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="1"/>
         <v>NewsListBody.css</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>Time.js</v>
       </c>
-      <c r="F10" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="1"/>
         <v>Time.css</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>Weather.js</v>
       </c>
-      <c r="F11" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="1"/>
         <v>Weather.css</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1067,13 +1167,13 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -1089,7 +1189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>48</v>
       </c>
@@ -1097,7 +1197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>48</v>
       </c>
@@ -1105,7 +1205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -1113,7 +1213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1121,7 +1221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1129,7 +1229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1137,7 +1237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -1152,104 +1252,124 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59D8EB7-140E-2549-9675-11AB2D5C3332}">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+    <row r="13" spans="2:10">
+      <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:J13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{E9827DC6-2B38-5D43-A8EA-72649F09AE08}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{18B1E2F6-E455-C045-A554-C747F48303BB}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{E9827DC6-2B38-5D43-A8EA-72649F09AE08}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{18B1E2F6-E455-C045-A554-C747F48303BB}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{C00D40F2-4B9B-4145-91DC-22D4913E2B03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/news-portal-app/public/planning/Cesar_planning_info.xlsx
+++ b/news-portal-app/public/planning/Cesar_planning_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ct08284/sei/projects/NewsPortal/news-portal-app/public/planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jp53921/sei/projects/NewsPortal/news-portal-app/public/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6275C-D2EF-2247-8D31-B65310000FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305AB4E-01F4-A74E-AF2B-C46CBE03936E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14500" activeTab="3" xr2:uid="{295DA8A9-1451-E343-B001-0818A78FC602}"/>
+    <workbookView xWindow="5520" yWindow="9100" windowWidth="25440" windowHeight="14500" activeTab="2" xr2:uid="{295DA8A9-1451-E343-B001-0818A78FC602}"/>
   </bookViews>
   <sheets>
     <sheet name="MVP" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Component Hierarchy" sheetId="3" r:id="rId3"/>
     <sheet name="API" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
   <si>
     <t>Description</t>
   </si>
@@ -234,22 +234,68 @@
   </si>
   <si>
     <t>End point for current weather conditions</t>
+  </si>
+  <si>
+    <t>FakeAd</t>
+  </si>
+  <si>
+    <t>Render fake advertisings.</t>
+  </si>
+  <si>
+    <t>Socorro</t>
+  </si>
+  <si>
+    <t>FakePromo</t>
+  </si>
+  <si>
+    <t>Render fake promos.</t>
+  </si>
+  <si>
+    <t>NewsBySection</t>
+  </si>
+  <si>
+    <t>Render the info from 3 sections for the route "/" and "/news"</t>
+  </si>
+  <si>
+    <t>SectionList</t>
+  </si>
+  <si>
+    <t>Render the ribbon with the sections and stock info</t>
+  </si>
+  <si>
+    <t>SectionDet</t>
+  </si>
+  <si>
+    <t>Renders a main article with 2 small article for each section</t>
+  </si>
+  <si>
+    <t>SectionRigthNew</t>
+  </si>
+  <si>
+    <t>Renders the articles in a small format</t>
+  </si>
+  <si>
+    <t>SingleNew</t>
+  </si>
+  <si>
+    <t>Renders the full content of an article as well as fake ads and promos</t>
+  </si>
+  <si>
+    <t>StockInfo</t>
+  </si>
+  <si>
+    <t>Renders info from selected stock</t>
+  </si>
+  <si>
+    <t>SectionBigNews</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -264,8 +310,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,25 +400,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,7 +436,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -667,7 +735,7 @@
   <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,19 +750,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -708,7 +776,7 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3"/>
@@ -723,7 +791,7 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2"/>
@@ -738,7 +806,7 @@
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2"/>
@@ -753,7 +821,7 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2"/>
@@ -768,7 +836,7 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2"/>
@@ -783,7 +851,7 @@
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -800,7 +868,7 @@
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="2"/>
@@ -815,7 +883,7 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="2"/>
@@ -830,7 +898,7 @@
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="2"/>
@@ -845,7 +913,7 @@
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="2"/>
@@ -860,12 +928,10 @@
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -874,35 +940,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277D70AF-99A8-1442-8CBD-2FF7F0380110}">
-  <dimension ref="B3:F11"/>
+  <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -970,11 +1036,11 @@
         <v>39</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ref="E7:E11" si="0">+B7&amp;".js"</f>
+        <f t="shared" ref="E7:E19" si="0">+B7&amp;".js"</f>
         <v>NewsList.js</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ref="F7:F11" si="1">+B7&amp;".css"</f>
+        <f t="shared" ref="F7:F19" si="1">+B7&amp;".css"</f>
         <v>NewsList.css</v>
       </c>
     </row>
@@ -1052,6 +1118,158 @@
       <c r="F11" t="str">
         <f t="shared" si="1"/>
         <v>Weather.css</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>FakeAd.js</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>FakeAd.css</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>FakePromo.js</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>FakePromo.css</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>NewsBySection.js</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>NewsBySection.css</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>SectionList.js</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>SectionList.css</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>SectionDet.js</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>SectionDet.css</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>SectionRigthNew.js</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>SectionRigthNew.css</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>SingleNew.js</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>SingleNew.css</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>StockInfo.js</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>StockInfo.css</v>
       </c>
     </row>
   </sheetData>
@@ -1061,23 +1279,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F990F2E-8CD7-724A-991E-D5A82621252E}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1115,34 +1333,114 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1154,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59D8EB7-140E-2549-9675-11AB2D5C3332}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1475,7 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1231,17 +1529,17 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
